--- a/biology/Médecine/1188_en_santé_et_médecine/1188_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1188_en_santé_et_médecine/1188_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1188_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1188_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1188 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1188_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1188_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Pierre de Nogent, prieur de Saint-Pry, qui écrit en 1317, deux forgerons fondent à Béthune, en Artois, la confrérie des Charitables de Saint-Éloi, vouée au service des funérailles et au secours des frères malades ou dans le besoin[1].
-Alphonse II, roi d'Aragon, fonde l'hôpital du Saint-Rédempteur à Teruel, pour le rachat des captifs, et il le confie aux frères de Montjoie[2].
-Fondation de l'hôpital Notre-Dame de l'Aumône d'Annonay en Vivarais[3].
-Les frères du Saint-Esprit fondent un hôpital à Marseille, à l'emplacement de l'actuel hôtel-Dieu[4].
-Construction, à Angers, de l'infirmerie de l'abbaye Notre-Dame de la Charité, dite du Ronceray, grâce à Étienne de Marsay, sénéchal d'Anjou, fondateur de l'hôtel-Dieu[5].
-Première mention de l'hôpital des pauvres de Sainte-Opportune, fondé à Paris entre 1181 et 1184 et qui sera renommé hôpital Sainte-Catherine en 1222[6],[7],[8].
-1185-1188 : fondation d'une léproserie de femmes à Quevilly, près Rouen en Normandie, par Henri II, roi d'Angleterre[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Pierre de Nogent, prieur de Saint-Pry, qui écrit en 1317, deux forgerons fondent à Béthune, en Artois, la confrérie des Charitables de Saint-Éloi, vouée au service des funérailles et au secours des frères malades ou dans le besoin.
+Alphonse II, roi d'Aragon, fonde l'hôpital du Saint-Rédempteur à Teruel, pour le rachat des captifs, et il le confie aux frères de Montjoie.
+Fondation de l'hôpital Notre-Dame de l'Aumône d'Annonay en Vivarais.
+Les frères du Saint-Esprit fondent un hôpital à Marseille, à l'emplacement de l'actuel hôtel-Dieu.
+Construction, à Angers, de l'infirmerie de l'abbaye Notre-Dame de la Charité, dite du Ronceray, grâce à Étienne de Marsay, sénéchal d'Anjou, fondateur de l'hôtel-Dieu.
+Première mention de l'hôpital des pauvres de Sainte-Opportune, fondé à Paris entre 1181 et 1184 et qui sera renommé hôpital Sainte-Catherine en 1222.
+1185-1188 : fondation d'une léproserie de femmes à Quevilly, près Rouen en Normandie, par Henri II, roi d'Angleterre.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1188_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1188_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Épidémie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Épidémie de chorée au pays de Galles[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Épidémie de chorée au pays de Galles.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1188_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1188_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Bernard, médecin de Humbert IV, seigneur de Beaujeu et de Montpensier et connétable de France[11].
-Fl. Jean, médecin, témoin d'une donation de Geoffroy IV, sire de Joinville[11].
-Fl. Jean, médecin, dont l'anniversaire sera célébré  à l'abbaye Saint-Remi de Reims[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Bernard, médecin de Humbert IV, seigneur de Beaujeu et de Montpensier et connétable de France.
+Fl. Jean, médecin, témoin d'une donation de Geoffroy IV, sire de Joinville.
+Fl. Jean, médecin, dont l'anniversaire sera célébré  à l'abbaye Saint-Remi de Reims.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1188_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1188_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mort d'Oussama Ibn Mounqidh (né vers 1095), historien et voyageur syrien, auteur du Kitâb al-I`tibâr, récit autobiographique qui donne de précieuses informations sur les médecines franque et arabe du temps[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mort d'Oussama Ibn Mounqidh (né vers 1095), historien et voyageur syrien, auteur du Kitâb al-I`tibâr, récit autobiographique qui donne de précieuses informations sur les médecines franque et arabe du temps.
 </t>
         </is>
       </c>
